--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Code Folder\Java\Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CF2AF-4C03-4012-BB63-84DCDCE30CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C3303-BBA7-4887-990B-884660DEA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{989AB2A4-D181-437D-9557-8B7C2C683DED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Bob</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Algebra 2</t>
   </si>
   <si>
-    <t>Spanish 2</t>
-  </si>
-  <si>
     <t>LA 10 World Lit</t>
   </si>
   <si>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>CSE 142 AP CS</t>
+  </si>
+  <si>
+    <t>Graphic Des</t>
+  </si>
+  <si>
+    <t>Bus Law 2</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A60152-70B5-4AA4-A00C-C2F4D2A21BE4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,28 +430,46 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>

--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C3303-BBA7-4887-990B-884660DEA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA8CE5-8862-4995-8F25-50557F23DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{989AB2A4-D181-437D-9557-8B7C2C683DED}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>CSE 142 AP CS</t>
   </si>
   <si>
-    <t>Graphic Des</t>
-  </si>
-  <si>
-    <t>Bus Law 2</t>
+    <t>Ethnic Studies 10</t>
+  </si>
+  <si>
+    <t>Personal Fitness</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA8CE5-8862-4995-8F25-50557F23DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317D741-FB53-459E-A457-FACB93991B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{989AB2A4-D181-437D-9557-8B7C2C683DED}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Ethnic Studies 10</t>
   </si>
   <si>
-    <t>Personal Fitness</t>
+    <t>Intro To Prog</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NitroQuake\Downloads\Scheduler GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317D741-FB53-459E-A457-FACB93991B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93126A2D-4DF9-4B85-A0DF-E1012E32A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{989AB2A4-D181-437D-9557-8B7C2C683DED}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{989AB2A4-D181-437D-9557-8B7C2C683DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Bob</t>
   </si>
@@ -47,9 +47,6 @@
     <t>LA 10 World Lit</t>
   </si>
   <si>
-    <t>ES US Hist  11</t>
-  </si>
-  <si>
     <t>Phys B/Chem B</t>
   </si>
   <si>
@@ -60,6 +57,75 @@
   </si>
   <si>
     <t>Intro To Prog</t>
+  </si>
+  <si>
+    <t>ES US Hist 11</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>AP Calculus AB</t>
+  </si>
+  <si>
+    <t>Pre Calc H</t>
+  </si>
+  <si>
+    <t>LA 9 Intro Lit</t>
+  </si>
+  <si>
+    <t>LA 11 Amer Lit</t>
+  </si>
+  <si>
+    <t>AP LA 11A</t>
+  </si>
+  <si>
+    <t>Biology H</t>
+  </si>
+  <si>
+    <t>AP Chem</t>
+  </si>
+  <si>
+    <t>World Hist H</t>
+  </si>
+  <si>
+    <t>AP Human Geo</t>
+  </si>
+  <si>
+    <t>Spanish 3</t>
+  </si>
+  <si>
+    <t>Spanish AP</t>
+  </si>
+  <si>
+    <t>Japanese 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Theatre </t>
+  </si>
+  <si>
+    <t>Symph Orch</t>
+  </si>
+  <si>
+    <t>Guitar 1</t>
+  </si>
+  <si>
+    <t>Art Survey</t>
+  </si>
+  <si>
+    <t>Draw &amp; Paint Adv</t>
+  </si>
+  <si>
+    <t>Guitar 2</t>
   </si>
 </sst>
 </file>
@@ -417,7 +483,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -439,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -457,16 +523,204 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
       </c>
       <c r="O1">
         <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
